--- a/TEMP/MTN -Congo_backup_tracker_OUT1.xlsx
+++ b/TEMP/MTN -Congo_backup_tracker_OUT1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="8" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="10420" windowWidth="19420" xWindow="-110" yWindow="-110"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="10560" windowWidth="19420" xWindow="-110" yWindow="-110"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" state="visible" r:id="rId1"/>
@@ -14,7 +14,6 @@
     <sheet name="MINSAT" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="EMA" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="OCC" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="air_monthly" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="171027" fullCalcOnLoad="1"/>
@@ -219,7 +218,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -394,6 +393,12 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf applyAlignment="1" borderId="10" fillId="3" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="3" fontId="5" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="5" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -947,7 +952,7 @@
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="A21" sqref="A21:XFD23"/>
     </sheetView>
   </sheetViews>
@@ -1460,7 +1465,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -1738,48 +1743,96 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n">
+      <c r="A1" s="58" t="n">
         <v>26</v>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="59" t="inlineStr">
         <is>
           <t>IP  Address</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="60" t="inlineStr">
         <is>
           <t>Tape Backup Status</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="61" t="inlineStr">
         <is>
           <t>Failed Reason (If any)</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="46" t="n"/>
-      <c r="B2" s="46" t="n"/>
-      <c r="C2" s="37" t="n"/>
-      <c r="D2" s="46" t="n"/>
+      <c r="A2" s="46" t="inlineStr">
+        <is>
+          <t>pnrsdp4a</t>
+        </is>
+      </c>
+      <c r="B2" s="46" t="inlineStr">
+        <is>
+          <t>10.52.0.48</t>
+        </is>
+      </c>
+      <c r="C2" s="37" t="inlineStr">
+        <is>
+          <t>Connectivity/Password Issue</t>
+        </is>
+      </c>
+      <c r="D2" s="46" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="46" t="n"/>
-      <c r="B3" s="46" t="n"/>
-      <c r="C3" s="37" t="n"/>
-      <c r="D3" s="46" t="n"/>
+      <c r="A3" s="46" t="inlineStr">
+        <is>
+          <t>pnrsdp4b</t>
+        </is>
+      </c>
+      <c r="B3" s="46" t="inlineStr">
+        <is>
+          <t>10.52.0.49</t>
+        </is>
+      </c>
+      <c r="C3" s="37" t="inlineStr">
+        <is>
+          <t>Connectivity/Password Issue</t>
+        </is>
+      </c>
+      <c r="D3" s="46" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="46" t="n"/>
-      <c r="B4" s="46" t="n"/>
-      <c r="C4" s="37" t="n"/>
-      <c r="D4" s="46" t="n"/>
+      <c r="A4" s="46" t="inlineStr">
+        <is>
+          <t>bzvsdp3b</t>
+        </is>
+      </c>
+      <c r="B4" s="46" t="inlineStr">
+        <is>
+          <t>10.51.0.49</t>
+        </is>
+      </c>
+      <c r="C4" s="37" t="inlineStr">
+        <is>
+          <t>Connectivity/Password Issue</t>
+        </is>
+      </c>
+      <c r="D4" s="46" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="46" t="n"/>
-      <c r="B5" s="46" t="n"/>
-      <c r="C5" s="37" t="n"/>
-      <c r="D5" s="46" t="n"/>
+      <c r="A5" s="46" t="inlineStr">
+        <is>
+          <t>bzvsdp3a</t>
+        </is>
+      </c>
+      <c r="B5" s="46" t="inlineStr">
+        <is>
+          <t>10.51.0.48</t>
+        </is>
+      </c>
+      <c r="C5" s="37" t="inlineStr">
+        <is>
+          <t>Connectivity/Password Issue</t>
+        </is>
+      </c>
+      <c r="D5" s="46" t="inlineStr"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1">
@@ -1822,84 +1875,180 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="15.5" r="1">
-      <c r="A1" s="9" t="inlineStr">
+      <c r="A1" s="62" t="inlineStr">
         <is>
           <t xml:space="preserve">Node Name  </t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="61" t="inlineStr">
         <is>
           <t>Node IP</t>
         </is>
       </c>
-      <c r="C1" s="11" t="inlineStr">
+      <c r="C1" s="61" t="inlineStr">
         <is>
           <t xml:space="preserve">DB dump status </t>
         </is>
       </c>
-      <c r="D1" s="12" t="inlineStr">
+      <c r="D1" s="63" t="inlineStr">
         <is>
           <t>Remarks</t>
         </is>
       </c>
-      <c r="E1" s="11" t="inlineStr">
+      <c r="E1" s="61" t="inlineStr">
         <is>
           <t>FS dump status</t>
         </is>
       </c>
-      <c r="F1" s="12" t="inlineStr">
-        <is>
-          <t>Remarks</t>
+      <c r="F1" s="63" t="inlineStr">
+        <is>
+          <t>Remarks.1</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="41" t="n"/>
-      <c r="B2" s="41" t="n"/>
-      <c r="C2" s="37" t="n"/>
-      <c r="D2" s="46" t="n"/>
-      <c r="E2" s="37" t="n"/>
-      <c r="F2" s="46" t="n"/>
+      <c r="A2" s="41" t="inlineStr">
+        <is>
+          <t>pnvs2c</t>
+        </is>
+      </c>
+      <c r="B2" s="41" t="inlineStr">
+        <is>
+          <t>10.52.0.35</t>
+        </is>
+      </c>
+      <c r="C2" s="37" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="D2" s="46" t="inlineStr"/>
+      <c r="E2" s="37" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F2" s="46" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="41" t="n"/>
-      <c r="B3" s="41" t="n"/>
-      <c r="C3" s="37" t="n"/>
-      <c r="D3" s="46" t="n"/>
-      <c r="E3" s="37" t="n"/>
-      <c r="F3" s="46" t="n"/>
+      <c r="A3" s="41" t="inlineStr">
+        <is>
+          <t>pnvs2a</t>
+        </is>
+      </c>
+      <c r="B3" s="41" t="inlineStr">
+        <is>
+          <t>10.52.0.33</t>
+        </is>
+      </c>
+      <c r="C3" s="37" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="D3" s="46" t="inlineStr"/>
+      <c r="E3" s="37" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F3" s="46" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="41" t="n"/>
-      <c r="B4" s="41" t="n"/>
-      <c r="C4" s="37" t="n"/>
-      <c r="D4" s="46" t="n"/>
-      <c r="E4" s="37" t="n"/>
-      <c r="F4" s="46" t="n"/>
+      <c r="A4" s="41" t="inlineStr">
+        <is>
+          <t>bzvs1a</t>
+        </is>
+      </c>
+      <c r="B4" s="41" t="inlineStr">
+        <is>
+          <t>10.51.0.7</t>
+        </is>
+      </c>
+      <c r="C4" s="37" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="D4" s="46" t="inlineStr"/>
+      <c r="E4" s="37" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F4" s="46" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="41" t="n"/>
-      <c r="B5" s="41" t="n"/>
-      <c r="C5" s="37" t="n"/>
-      <c r="D5" s="46" t="n"/>
-      <c r="E5" s="37" t="n"/>
-      <c r="F5" s="46" t="n"/>
+      <c r="A5" s="41" t="inlineStr">
+        <is>
+          <t>BZVS1C</t>
+        </is>
+      </c>
+      <c r="B5" s="41" t="inlineStr">
+        <is>
+          <t>10.51.0.9</t>
+        </is>
+      </c>
+      <c r="C5" s="37" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="D5" s="46" t="inlineStr"/>
+      <c r="E5" s="37" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F5" s="46" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="41" t="n"/>
-      <c r="B6" s="41" t="n"/>
-      <c r="C6" s="37" t="n"/>
-      <c r="D6" s="46" t="n"/>
-      <c r="E6" s="37" t="n"/>
-      <c r="F6" s="41" t="n"/>
+      <c r="A6" s="41" t="inlineStr">
+        <is>
+          <t>pnvs2b</t>
+        </is>
+      </c>
+      <c r="B6" s="41" t="inlineStr">
+        <is>
+          <t>10.52.0.34</t>
+        </is>
+      </c>
+      <c r="C6" s="37" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="D6" s="46" t="inlineStr"/>
+      <c r="E6" s="37" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F6" s="41" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="41" t="n"/>
-      <c r="B7" s="41" t="n"/>
-      <c r="C7" s="37" t="n"/>
-      <c r="D7" s="46" t="n"/>
-      <c r="E7" s="37" t="n"/>
-      <c r="F7" s="41" t="n"/>
+      <c r="A7" s="41" t="inlineStr">
+        <is>
+          <t>bzvs1b</t>
+        </is>
+      </c>
+      <c r="B7" s="41" t="inlineStr">
+        <is>
+          <t>10.51.0.8</t>
+        </is>
+      </c>
+      <c r="C7" s="37" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="D7" s="46" t="inlineStr"/>
+      <c r="E7" s="37" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F7" s="41" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="44" t="n"/>
@@ -2201,47 +2350,4 @@
   </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>company</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>akash</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>eric</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>
--- a/TEMP/MTN -Congo_backup_tracker_OUT1.xlsx
+++ b/TEMP/MTN -Congo_backup_tracker_OUT1.xlsx
@@ -218,7 +218,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -399,6 +399,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf applyAlignment="1" borderId="10" fillId="5" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="4" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1511,7 +1514,7 @@
       </c>
       <c r="C2" s="37" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Connectivity/Password Issue</t>
         </is>
       </c>
       <c r="D2" s="46" t="inlineStr"/>
@@ -1529,7 +1532,7 @@
       </c>
       <c r="C3" s="37" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Connectivity/Password Issue</t>
         </is>
       </c>
       <c r="D3" s="46" t="inlineStr"/>
@@ -1919,13 +1922,13 @@
       </c>
       <c r="C2" s="37" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Connectivity/Password Issue</t>
         </is>
       </c>
       <c r="D2" s="46" t="inlineStr"/>
       <c r="E2" s="37" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Connectivity/Password Issue</t>
         </is>
       </c>
       <c r="F2" s="46" t="inlineStr"/>
@@ -1943,13 +1946,13 @@
       </c>
       <c r="C3" s="37" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Connectivity/Password Issue</t>
         </is>
       </c>
       <c r="D3" s="46" t="inlineStr"/>
       <c r="E3" s="37" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Connectivity/Password Issue</t>
         </is>
       </c>
       <c r="F3" s="46" t="inlineStr"/>
@@ -1967,13 +1970,13 @@
       </c>
       <c r="C4" s="37" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Connectivity/Password Issue</t>
         </is>
       </c>
       <c r="D4" s="46" t="inlineStr"/>
       <c r="E4" s="37" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Connectivity/Password Issue</t>
         </is>
       </c>
       <c r="F4" s="46" t="inlineStr"/>
@@ -1991,13 +1994,13 @@
       </c>
       <c r="C5" s="37" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Connectivity/Password Issue</t>
         </is>
       </c>
       <c r="D5" s="46" t="inlineStr"/>
       <c r="E5" s="37" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Connectivity/Password Issue</t>
         </is>
       </c>
       <c r="F5" s="46" t="inlineStr"/>
@@ -2015,13 +2018,13 @@
       </c>
       <c r="C6" s="37" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Connectivity/Password Issue</t>
         </is>
       </c>
       <c r="D6" s="46" t="inlineStr"/>
       <c r="E6" s="37" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Connectivity/Password Issue</t>
         </is>
       </c>
       <c r="F6" s="41" t="inlineStr"/>
@@ -2039,13 +2042,13 @@
       </c>
       <c r="C7" s="37" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Connectivity/Password Issue</t>
         </is>
       </c>
       <c r="D7" s="46" t="inlineStr"/>
       <c r="E7" s="37" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Connectivity/Password Issue</t>
         </is>
       </c>
       <c r="F7" s="41" t="inlineStr"/>
@@ -2093,44 +2096,60 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="15.5" r="1">
-      <c r="A1" s="6" t="inlineStr">
+      <c r="A1" s="62" t="inlineStr">
         <is>
           <t>Hostname</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="61" t="inlineStr">
         <is>
           <t>Node IP</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
+      <c r="C1" s="61" t="inlineStr">
         <is>
           <t>Daily DB dump status</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="63" t="inlineStr">
         <is>
           <t>Remarks</t>
         </is>
       </c>
-      <c r="E1" s="7" t="inlineStr">
+      <c r="E1" s="61" t="inlineStr">
         <is>
           <t>Daily FS dump status</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
-        <is>
-          <t>Remarks</t>
+      <c r="F1" s="63" t="inlineStr">
+        <is>
+          <t>Remarks.1</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="46" t="n"/>
-      <c r="B2" s="46" t="n"/>
-      <c r="C2" s="37" t="n"/>
-      <c r="D2" s="46" t="n"/>
-      <c r="E2" s="37" t="n"/>
-      <c r="F2" s="46" t="n"/>
+      <c r="A2" s="46" t="inlineStr">
+        <is>
+          <t>bzminsat01</t>
+        </is>
+      </c>
+      <c r="B2" s="46" t="inlineStr">
+        <is>
+          <t>10.51.1.2</t>
+        </is>
+      </c>
+      <c r="C2" s="37" t="inlineStr">
+        <is>
+          <t>Connectivity/Password Issue</t>
+        </is>
+      </c>
+      <c r="D2" s="46" t="inlineStr"/>
+      <c r="E2" s="37" t="inlineStr">
+        <is>
+          <t>Connectivity/Password Issue</t>
+        </is>
+      </c>
+      <c r="F2" s="46" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="D13" t="inlineStr">
@@ -2168,52 +2187,84 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="15.5" r="1">
-      <c r="A1" s="14" t="inlineStr">
+      <c r="A1" s="64" t="inlineStr">
         <is>
           <t>Node Name</t>
         </is>
       </c>
-      <c r="B1" s="14" t="inlineStr">
+      <c r="B1" s="64" t="inlineStr">
         <is>
           <t>Node IP</t>
         </is>
       </c>
-      <c r="C1" s="12" t="inlineStr">
+      <c r="C1" s="63" t="inlineStr">
         <is>
           <t>Proclogs_Backup status</t>
         </is>
       </c>
-      <c r="D1" s="12" t="inlineStr">
+      <c r="D1" s="63" t="inlineStr">
         <is>
           <t>Remarks</t>
         </is>
       </c>
-      <c r="E1" s="12" t="inlineStr">
+      <c r="E1" s="63" t="inlineStr">
         <is>
           <t>Config_Backup status</t>
         </is>
       </c>
-      <c r="F1" s="12" t="inlineStr">
-        <is>
-          <t>Remarks</t>
+      <c r="F1" s="63" t="inlineStr">
+        <is>
+          <t>Remarks.1</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="41" t="n"/>
-      <c r="B2" s="41" t="n"/>
-      <c r="C2" s="37" t="n"/>
-      <c r="D2" s="46" t="n"/>
-      <c r="E2" s="37" t="n"/>
-      <c r="F2" s="46" t="n"/>
+      <c r="A2" s="41" t="inlineStr">
+        <is>
+          <t>mtnema02</t>
+        </is>
+      </c>
+      <c r="B2" s="41" t="inlineStr">
+        <is>
+          <t>10.119.127.133</t>
+        </is>
+      </c>
+      <c r="C2" s="37" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="D2" s="46" t="inlineStr"/>
+      <c r="E2" s="37" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F2" s="46" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="41" t="n"/>
-      <c r="B3" s="41" t="n"/>
-      <c r="C3" s="37" t="n"/>
-      <c r="D3" s="46" t="n"/>
-      <c r="E3" s="37" t="n"/>
-      <c r="F3" s="46" t="n"/>
+      <c r="A3" s="41" t="inlineStr">
+        <is>
+          <t>mtnema01</t>
+        </is>
+      </c>
+      <c r="B3" s="41" t="inlineStr">
+        <is>
+          <t>10.119.127.132</t>
+        </is>
+      </c>
+      <c r="C3" s="37" t="inlineStr">
+        <is>
+          <t>Connectivity/Password Issue</t>
+        </is>
+      </c>
+      <c r="D3" s="46" t="inlineStr"/>
+      <c r="E3" s="37" t="inlineStr">
+        <is>
+          <t>Connectivity/Password Issue</t>
+        </is>
+      </c>
+      <c r="F3" s="46" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/TEMP/MTN -Congo_backup_tracker_OUT1.xlsx
+++ b/TEMP/MTN -Congo_backup_tracker_OUT1.xlsx
@@ -953,7 +953,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="A21" sqref="A21:XFD23"/>
@@ -1004,31 +1004,79 @@
           <t>AIR</t>
         </is>
       </c>
-      <c r="B2" s="46" t="n"/>
-      <c r="C2" s="46" t="n"/>
-      <c r="D2" s="46" t="n"/>
-      <c r="E2" s="46" t="n"/>
+      <c r="B2" s="46" t="inlineStr">
+        <is>
+          <t>pnair03</t>
+        </is>
+      </c>
+      <c r="C2" s="46" t="inlineStr">
+        <is>
+          <t>10.52.0.16</t>
+        </is>
+      </c>
+      <c r="D2" s="46" t="inlineStr">
+        <is>
+          <t>Connectivity/Password Issue</t>
+        </is>
+      </c>
+      <c r="E2" s="46" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="53" t="n"/>
-      <c r="B3" s="46" t="n"/>
-      <c r="C3" s="46" t="n"/>
-      <c r="D3" s="46" t="n"/>
-      <c r="E3" s="46" t="n"/>
+      <c r="B3" s="46" t="inlineStr">
+        <is>
+          <t>pnair04</t>
+        </is>
+      </c>
+      <c r="C3" s="46" t="inlineStr">
+        <is>
+          <t>10.52.0.20</t>
+        </is>
+      </c>
+      <c r="D3" s="46" t="inlineStr">
+        <is>
+          <t>Connectivity/Password Issue</t>
+        </is>
+      </c>
+      <c r="E3" s="46" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="53" t="n"/>
-      <c r="B4" s="46" t="n"/>
-      <c r="C4" s="46" t="n"/>
-      <c r="D4" s="46" t="n"/>
-      <c r="E4" s="46" t="n"/>
+      <c r="B4" s="46" t="inlineStr">
+        <is>
+          <t>bzair01</t>
+        </is>
+      </c>
+      <c r="C4" s="46" t="inlineStr">
+        <is>
+          <t>10.51.0.57</t>
+        </is>
+      </c>
+      <c r="D4" s="46" t="inlineStr">
+        <is>
+          <t>Connectivity/Password Issue</t>
+        </is>
+      </c>
+      <c r="E4" s="46" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="54" t="n"/>
-      <c r="B5" s="46" t="n"/>
-      <c r="C5" s="46" t="n"/>
-      <c r="D5" s="46" t="n"/>
-      <c r="E5" s="46" t="n"/>
+      <c r="B5" s="46" t="inlineStr">
+        <is>
+          <t>bzair02</t>
+        </is>
+      </c>
+      <c r="C5" s="46" t="inlineStr">
+        <is>
+          <t>10.51.0.59</t>
+        </is>
+      </c>
+      <c r="D5" s="46" t="inlineStr">
+        <is>
+          <t>Connectivity/Password Issue</t>
+        </is>
+      </c>
+      <c r="E5" s="46" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1063,31 +1111,79 @@
           <t>SDP</t>
         </is>
       </c>
-      <c r="B7" s="46" t="n"/>
-      <c r="C7" s="46" t="n"/>
-      <c r="D7" s="46" t="n"/>
-      <c r="E7" s="46" t="n"/>
+      <c r="B7" s="46" t="inlineStr">
+        <is>
+          <t>pnrsdp4a</t>
+        </is>
+      </c>
+      <c r="C7" s="46" t="inlineStr">
+        <is>
+          <t>10.52.0.48</t>
+        </is>
+      </c>
+      <c r="D7" s="46" t="inlineStr">
+        <is>
+          <t>Connectivity/Password Issue</t>
+        </is>
+      </c>
+      <c r="E7" s="46" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="56" t="n"/>
-      <c r="B8" s="46" t="n"/>
-      <c r="C8" s="46" t="n"/>
-      <c r="D8" s="46" t="n"/>
-      <c r="E8" s="46" t="n"/>
+      <c r="B8" s="46" t="inlineStr">
+        <is>
+          <t>pnrsdp4b</t>
+        </is>
+      </c>
+      <c r="C8" s="46" t="inlineStr">
+        <is>
+          <t>10.52.0.49</t>
+        </is>
+      </c>
+      <c r="D8" s="46" t="inlineStr">
+        <is>
+          <t>Connectivity/Password Issue</t>
+        </is>
+      </c>
+      <c r="E8" s="46" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="56" t="n"/>
-      <c r="B9" s="46" t="n"/>
-      <c r="C9" s="46" t="n"/>
-      <c r="D9" s="46" t="n"/>
-      <c r="E9" s="46" t="n"/>
+      <c r="B9" s="46" t="inlineStr">
+        <is>
+          <t>bzvsdp3b</t>
+        </is>
+      </c>
+      <c r="C9" s="46" t="inlineStr">
+        <is>
+          <t>10.51.0.49</t>
+        </is>
+      </c>
+      <c r="D9" s="46" t="inlineStr">
+        <is>
+          <t>Connectivity/Password Issue</t>
+        </is>
+      </c>
+      <c r="E9" s="46" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="57" t="n"/>
-      <c r="B10" s="46" t="n"/>
-      <c r="C10" s="46" t="n"/>
-      <c r="D10" s="46" t="n"/>
-      <c r="E10" s="46" t="n"/>
+      <c r="B10" s="46" t="inlineStr">
+        <is>
+          <t>bzvsdp3a</t>
+        </is>
+      </c>
+      <c r="C10" s="46" t="inlineStr">
+        <is>
+          <t>10.51.0.48</t>
+        </is>
+      </c>
+      <c r="D10" s="46" t="inlineStr">
+        <is>
+          <t>Connectivity/Password Issue</t>
+        </is>
+      </c>
+      <c r="E10" s="46" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1122,17 +1218,41 @@
           <t>CCN</t>
         </is>
       </c>
-      <c r="B12" s="46" t="n"/>
-      <c r="C12" s="46" t="n"/>
-      <c r="D12" s="46" t="n"/>
-      <c r="E12" s="46" t="n"/>
+      <c r="B12" s="46" t="inlineStr">
+        <is>
+          <t>BZ-CCN2</t>
+        </is>
+      </c>
+      <c r="C12" s="46" t="inlineStr">
+        <is>
+          <t>10.51.0.227</t>
+        </is>
+      </c>
+      <c r="D12" s="46" t="inlineStr">
+        <is>
+          <t>Connectivity/Password Issue</t>
+        </is>
+      </c>
+      <c r="E12" s="46" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="54" t="n"/>
-      <c r="B13" s="46" t="n"/>
-      <c r="C13" s="46" t="n"/>
-      <c r="D13" s="46" t="n"/>
-      <c r="E13" s="46" t="n"/>
+      <c r="B13" s="46" t="inlineStr">
+        <is>
+          <t>BZCCN2IO1</t>
+        </is>
+      </c>
+      <c r="C13" s="46" t="inlineStr">
+        <is>
+          <t>10.51.0.226</t>
+        </is>
+      </c>
+      <c r="D13" s="46" t="inlineStr">
+        <is>
+          <t>Connectivity/Password Issue</t>
+        </is>
+      </c>
+      <c r="E13" s="46" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1142,24 +1262,20 @@
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Node Name  </t>
+          <t>PNCCN2IO1</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>Node IP</t>
+          <t>10.52.0.226</t>
         </is>
       </c>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">DB dump status </t>
-        </is>
-      </c>
-      <c r="E14" s="1" t="inlineStr">
-        <is>
-          <t>Remarks</t>
-        </is>
-      </c>
+          <t>Connectivity/Password Issue</t>
+        </is>
+      </c>
+      <c r="E14" s="1" t="inlineStr"/>
       <c r="F14" s="1" t="inlineStr">
         <is>
           <t>FS dump status</t>
@@ -1177,57 +1293,153 @@
           <t>NGVS</t>
         </is>
       </c>
-      <c r="B15" s="41" t="n"/>
-      <c r="C15" s="41" t="n"/>
-      <c r="D15" s="37" t="n"/>
-      <c r="E15" s="46" t="n"/>
-      <c r="F15" s="37" t="n"/>
-      <c r="G15" s="46" t="n"/>
+      <c r="B15" s="41" t="inlineStr">
+        <is>
+          <t>pnvs2c</t>
+        </is>
+      </c>
+      <c r="C15" s="41" t="inlineStr">
+        <is>
+          <t>10.52.0.35</t>
+        </is>
+      </c>
+      <c r="D15" s="37" t="inlineStr">
+        <is>
+          <t>Connectivity/Password Issue</t>
+        </is>
+      </c>
+      <c r="E15" s="46" t="inlineStr"/>
+      <c r="F15" s="37" t="inlineStr">
+        <is>
+          <t>Connectivity/Password Issue</t>
+        </is>
+      </c>
+      <c r="G15" s="46" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="53" t="n"/>
-      <c r="B16" s="41" t="n"/>
-      <c r="C16" s="41" t="n"/>
-      <c r="D16" s="37" t="n"/>
-      <c r="E16" s="46" t="n"/>
-      <c r="F16" s="37" t="n"/>
-      <c r="G16" s="46" t="n"/>
+      <c r="B16" s="41" t="inlineStr">
+        <is>
+          <t>pnvs2a</t>
+        </is>
+      </c>
+      <c r="C16" s="41" t="inlineStr">
+        <is>
+          <t>10.52.0.33</t>
+        </is>
+      </c>
+      <c r="D16" s="37" t="inlineStr">
+        <is>
+          <t>Connectivity/Password Issue</t>
+        </is>
+      </c>
+      <c r="E16" s="46" t="inlineStr"/>
+      <c r="F16" s="37" t="inlineStr">
+        <is>
+          <t>Connectivity/Password Issue</t>
+        </is>
+      </c>
+      <c r="G16" s="46" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="53" t="n"/>
-      <c r="B17" s="41" t="n"/>
-      <c r="C17" s="41" t="n"/>
-      <c r="D17" s="37" t="n"/>
-      <c r="E17" s="46" t="n"/>
-      <c r="F17" s="37" t="n"/>
-      <c r="G17" s="46" t="n"/>
+      <c r="B17" s="41" t="inlineStr">
+        <is>
+          <t>bzvs1a</t>
+        </is>
+      </c>
+      <c r="C17" s="41" t="inlineStr">
+        <is>
+          <t>10.51.0.7</t>
+        </is>
+      </c>
+      <c r="D17" s="37" t="inlineStr">
+        <is>
+          <t>Connectivity/Password Issue</t>
+        </is>
+      </c>
+      <c r="E17" s="46" t="inlineStr"/>
+      <c r="F17" s="37" t="inlineStr">
+        <is>
+          <t>Connectivity/Password Issue</t>
+        </is>
+      </c>
+      <c r="G17" s="46" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="53" t="n"/>
-      <c r="B18" s="41" t="n"/>
-      <c r="C18" s="41" t="n"/>
-      <c r="D18" s="37" t="n"/>
-      <c r="E18" s="46" t="n"/>
-      <c r="F18" s="37" t="n"/>
-      <c r="G18" s="46" t="n"/>
+      <c r="B18" s="41" t="inlineStr">
+        <is>
+          <t>BZVS1C</t>
+        </is>
+      </c>
+      <c r="C18" s="41" t="inlineStr">
+        <is>
+          <t>10.51.0.9</t>
+        </is>
+      </c>
+      <c r="D18" s="37" t="inlineStr">
+        <is>
+          <t>Connectivity/Password Issue</t>
+        </is>
+      </c>
+      <c r="E18" s="46" t="inlineStr"/>
+      <c r="F18" s="37" t="inlineStr">
+        <is>
+          <t>Connectivity/Password Issue</t>
+        </is>
+      </c>
+      <c r="G18" s="46" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="53" t="n"/>
-      <c r="B19" s="41" t="n"/>
-      <c r="C19" s="41" t="n"/>
-      <c r="D19" s="37" t="n"/>
-      <c r="E19" s="41" t="n"/>
-      <c r="F19" s="37" t="n"/>
-      <c r="G19" s="41" t="n"/>
+      <c r="B19" s="41" t="inlineStr">
+        <is>
+          <t>pnvs2b</t>
+        </is>
+      </c>
+      <c r="C19" s="41" t="inlineStr">
+        <is>
+          <t>10.52.0.34</t>
+        </is>
+      </c>
+      <c r="D19" s="37" t="inlineStr">
+        <is>
+          <t>Connectivity/Password Issue</t>
+        </is>
+      </c>
+      <c r="E19" s="41" t="inlineStr"/>
+      <c r="F19" s="37" t="inlineStr">
+        <is>
+          <t>Connectivity/Password Issue</t>
+        </is>
+      </c>
+      <c r="G19" s="41" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="54" t="n"/>
-      <c r="B20" s="41" t="n"/>
-      <c r="C20" s="41" t="n"/>
-      <c r="D20" s="37" t="n"/>
-      <c r="E20" s="41" t="n"/>
-      <c r="F20" s="37" t="n"/>
-      <c r="G20" s="41" t="n"/>
+      <c r="B20" s="41" t="inlineStr">
+        <is>
+          <t>bzvs1b</t>
+        </is>
+      </c>
+      <c r="C20" s="41" t="inlineStr">
+        <is>
+          <t>10.51.0.8</t>
+        </is>
+      </c>
+      <c r="D20" s="37" t="inlineStr">
+        <is>
+          <t>Connectivity/Password Issue</t>
+        </is>
+      </c>
+      <c r="E20" s="41" t="inlineStr"/>
+      <c r="F20" s="37" t="inlineStr">
+        <is>
+          <t>Connectivity/Password Issue</t>
+        </is>
+      </c>
+      <c r="G20" s="41" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1235,36 +1447,12 @@
           <t>Node</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Node Name  </t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t>Node IP</t>
-        </is>
-      </c>
-      <c r="D21" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Daily DB dump status </t>
-        </is>
-      </c>
-      <c r="E21" s="1" t="inlineStr">
-        <is>
-          <t>Remarks</t>
-        </is>
-      </c>
-      <c r="F21" s="1" t="inlineStr">
-        <is>
-          <t>Daily FS dump status</t>
-        </is>
-      </c>
-      <c r="G21" s="1" t="inlineStr">
-        <is>
-          <t>Remarks</t>
-        </is>
-      </c>
+      <c r="B21" s="1" t="inlineStr"/>
+      <c r="C21" s="1" t="inlineStr"/>
+      <c r="D21" s="1" t="inlineStr"/>
+      <c r="E21" s="1" t="inlineStr"/>
+      <c r="F21" s="1" t="inlineStr"/>
+      <c r="G21" s="1" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="46" t="inlineStr">
@@ -1272,21 +1460,37 @@
           <t>MINSAT</t>
         </is>
       </c>
-      <c r="B22" s="46" t="n"/>
-      <c r="C22" s="46" t="n"/>
-      <c r="D22" s="46" t="n"/>
-      <c r="E22" s="46" t="n"/>
-      <c r="F22" s="46" t="n"/>
-      <c r="G22" s="46" t="n"/>
+      <c r="B22" s="46" t="inlineStr">
+        <is>
+          <t>bzminsat01</t>
+        </is>
+      </c>
+      <c r="C22" s="46" t="inlineStr">
+        <is>
+          <t>10.51.1.2</t>
+        </is>
+      </c>
+      <c r="D22" s="46" t="inlineStr">
+        <is>
+          <t>Connectivity/Password Issue</t>
+        </is>
+      </c>
+      <c r="E22" s="46" t="inlineStr"/>
+      <c r="F22" s="46" t="inlineStr">
+        <is>
+          <t>Connectivity/Password Issue</t>
+        </is>
+      </c>
+      <c r="G22" s="46" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="54" t="n"/>
-      <c r="B23" s="46" t="n"/>
-      <c r="C23" s="46" t="n"/>
-      <c r="D23" s="46" t="n"/>
-      <c r="E23" s="46" t="n"/>
-      <c r="F23" s="46" t="n"/>
-      <c r="G23" s="46" t="n"/>
+      <c r="B23" s="46" t="inlineStr"/>
+      <c r="C23" s="46" t="inlineStr"/>
+      <c r="D23" s="46" t="inlineStr"/>
+      <c r="E23" s="46" t="inlineStr"/>
+      <c r="F23" s="46" t="inlineStr"/>
+      <c r="G23" s="46" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1294,36 +1498,16 @@
           <t>Node</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Node Name  </t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t>Node IP</t>
-        </is>
-      </c>
-      <c r="D24" s="1" t="inlineStr">
-        <is>
-          <t>Proclogs_Backup status</t>
-        </is>
-      </c>
+      <c r="B24" s="1" t="inlineStr"/>
+      <c r="C24" s="1" t="inlineStr"/>
+      <c r="D24" s="1" t="inlineStr"/>
       <c r="E24" s="1" t="inlineStr">
         <is>
-          <t>Remarks</t>
-        </is>
-      </c>
-      <c r="F24" s="1" t="inlineStr">
-        <is>
-          <t>Config_Backup status</t>
-        </is>
-      </c>
-      <c r="G24" s="1" t="inlineStr">
-        <is>
-          <t>Remarks</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F24" s="1" t="inlineStr"/>
+      <c r="G24" s="1" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="46" t="inlineStr">
@@ -1331,21 +1515,53 @@
           <t>EMA</t>
         </is>
       </c>
-      <c r="B25" s="41" t="n"/>
-      <c r="C25" s="41" t="n"/>
-      <c r="D25" s="46" t="n"/>
-      <c r="E25" s="46" t="n"/>
-      <c r="F25" s="46" t="n"/>
-      <c r="G25" s="46" t="n"/>
+      <c r="B25" s="41" t="inlineStr">
+        <is>
+          <t>mtnema02</t>
+        </is>
+      </c>
+      <c r="C25" s="41" t="inlineStr">
+        <is>
+          <t>10.119.127.133</t>
+        </is>
+      </c>
+      <c r="D25" s="46" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E25" s="46" t="inlineStr"/>
+      <c r="F25" s="46" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="G25" s="46" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="54" t="n"/>
-      <c r="B26" s="41" t="n"/>
-      <c r="C26" s="41" t="n"/>
-      <c r="D26" s="46" t="n"/>
-      <c r="E26" s="46" t="n"/>
-      <c r="F26" s="46" t="n"/>
-      <c r="G26" s="46" t="n"/>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t>mtnema01</t>
+        </is>
+      </c>
+      <c r="C26" s="41" t="inlineStr">
+        <is>
+          <t>10.119.127.132</t>
+        </is>
+      </c>
+      <c r="D26" s="46" t="inlineStr">
+        <is>
+          <t>Connectivity/Password Issue</t>
+        </is>
+      </c>
+      <c r="E26" s="46" t="inlineStr"/>
+      <c r="F26" s="46" t="inlineStr">
+        <is>
+          <t>Connectivity/Password Issue</t>
+        </is>
+      </c>
+      <c r="G26" s="46" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1353,26 +1569,12 @@
           <t>Node</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Node Name  </t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t>IP  Address</t>
-        </is>
-      </c>
-      <c r="D27" s="1" t="inlineStr">
-        <is>
-          <t>FS  Backup Status</t>
-        </is>
-      </c>
-      <c r="E27" s="1" t="inlineStr">
-        <is>
-          <t>Failed Reason (If any)</t>
-        </is>
-      </c>
+      <c r="B27" s="1" t="inlineStr"/>
+      <c r="C27" s="1" t="inlineStr"/>
+      <c r="D27" s="1" t="inlineStr"/>
+      <c r="E27" s="1" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="46" t="inlineStr">
@@ -1380,31 +1582,107 @@
           <t>OCC</t>
         </is>
       </c>
-      <c r="B28" s="41" t="n"/>
-      <c r="C28" s="41" t="n"/>
-      <c r="D28" s="37" t="n"/>
-      <c r="E28" s="46" t="n"/>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t>bzvocc2</t>
+        </is>
+      </c>
+      <c r="C28" s="41" t="inlineStr">
+        <is>
+          <t>10.119.43.169</t>
+        </is>
+      </c>
+      <c r="D28" s="37" t="inlineStr">
+        <is>
+          <t>Connectivity/Password Issue</t>
+        </is>
+      </c>
+      <c r="E28" s="46" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="53" t="n"/>
-      <c r="B29" s="41" t="n"/>
-      <c r="C29" s="41" t="n"/>
-      <c r="D29" s="37" t="n"/>
-      <c r="E29" s="46" t="n"/>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t>pnrocc1</t>
+        </is>
+      </c>
+      <c r="C29" s="41" t="inlineStr">
+        <is>
+          <t>10.52.160.37</t>
+        </is>
+      </c>
+      <c r="D29" s="37" t="inlineStr">
+        <is>
+          <t>Connectivity/Password Issue</t>
+        </is>
+      </c>
+      <c r="E29" s="46" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="53" t="n"/>
-      <c r="B30" s="41" t="n"/>
-      <c r="C30" s="41" t="n"/>
-      <c r="D30" s="37" t="n"/>
-      <c r="E30" s="46" t="n"/>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t>bzvocc1</t>
+        </is>
+      </c>
+      <c r="C30" s="41" t="inlineStr">
+        <is>
+          <t>10.119.43.168</t>
+        </is>
+      </c>
+      <c r="D30" s="37" t="inlineStr">
+        <is>
+          <t>Connectivity/Password Issue</t>
+        </is>
+      </c>
+      <c r="E30" s="46" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="54" t="n"/>
-      <c r="B31" s="41" t="n"/>
-      <c r="C31" s="41" t="n"/>
-      <c r="D31" s="37" t="n"/>
-      <c r="E31" s="46" t="n"/>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t>pnrocc2</t>
+        </is>
+      </c>
+      <c r="C31" s="41" t="inlineStr">
+        <is>
+          <t>10.52.160.39</t>
+        </is>
+      </c>
+      <c r="D31" s="37" t="inlineStr">
+        <is>
+          <t>Connectivity/Password Issue</t>
+        </is>
+      </c>
+      <c r="E31" s="46" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/TEMP/MTN -Congo_backup_tracker_OUT1.xlsx
+++ b/TEMP/MTN -Congo_backup_tracker_OUT1.xlsx
@@ -1220,12 +1220,12 @@
       </c>
       <c r="B12" s="46" t="inlineStr">
         <is>
-          <t>BZ-CCN2</t>
+          <t>BZCCN2IO1</t>
         </is>
       </c>
       <c r="C12" s="46" t="inlineStr">
         <is>
-          <t>10.51.0.227</t>
+          <t>10.51.0.226</t>
         </is>
       </c>
       <c r="D12" s="46" t="inlineStr">
@@ -1237,22 +1237,10 @@
     </row>
     <row r="13">
       <c r="A13" s="54" t="n"/>
-      <c r="B13" s="46" t="inlineStr">
-        <is>
-          <t>BZCCN2IO1</t>
-        </is>
-      </c>
-      <c r="C13" s="46" t="inlineStr">
-        <is>
-          <t>10.51.0.226</t>
-        </is>
-      </c>
-      <c r="D13" s="46" t="inlineStr">
-        <is>
-          <t>Connectivity/Password Issue</t>
-        </is>
-      </c>
-      <c r="E13" s="46" t="inlineStr"/>
+      <c r="B13" s="46" t="n"/>
+      <c r="C13" s="46" t="n"/>
+      <c r="D13" s="46" t="n"/>
+      <c r="E13" s="46" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1262,20 +1250,24 @@
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>PNCCN2IO1</t>
+          <t xml:space="preserve">Node Name  </t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>10.52.0.226</t>
+          <t>Node IP</t>
         </is>
       </c>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>Connectivity/Password Issue</t>
-        </is>
-      </c>
-      <c r="E14" s="1" t="inlineStr"/>
+          <t xml:space="preserve">DB dump status </t>
+        </is>
+      </c>
+      <c r="E14" s="1" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
       <c r="F14" s="1" t="inlineStr">
         <is>
           <t>FS dump status</t>
@@ -1527,13 +1519,13 @@
       </c>
       <c r="D25" s="46" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Connectivity/Password Issue</t>
         </is>
       </c>
       <c r="E25" s="46" t="inlineStr"/>
       <c r="F25" s="46" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Connectivity/Password Issue</t>
         </is>
       </c>
       <c r="G25" s="46" t="inlineStr"/>
@@ -1876,7 +1868,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD3"/>
@@ -1915,12 +1907,12 @@
     <row r="2">
       <c r="A2" s="46" t="inlineStr">
         <is>
-          <t>BZ-CCN2</t>
+          <t>BZCCN2IO1</t>
         </is>
       </c>
       <c r="B2" s="46" t="inlineStr">
         <is>
-          <t>10.51.0.227</t>
+          <t>10.51.0.226</t>
         </is>
       </c>
       <c r="C2" s="37" t="inlineStr">
@@ -1931,58 +1923,10 @@
       <c r="D2" s="46" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="46" t="inlineStr">
-        <is>
-          <t>BZCCN2IO1</t>
-        </is>
-      </c>
-      <c r="B3" s="46" t="inlineStr">
-        <is>
-          <t>10.51.0.226</t>
-        </is>
-      </c>
-      <c r="C3" s="37" t="inlineStr">
-        <is>
-          <t>Connectivity/Password Issue</t>
-        </is>
-      </c>
-      <c r="D3" s="46" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>PNCCN2IO1</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>10.52.0.226</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Connectivity/Password Issue</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>PN-CCN2</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>10.52.0.227</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Connectivity/Password Issue</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="A3" s="46" t="n"/>
+      <c r="B3" s="46" t="n"/>
+      <c r="C3" s="37" t="n"/>
+      <c r="D3" s="46" t="n"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1">
@@ -2509,13 +2453,13 @@
       </c>
       <c r="C2" s="37" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Connectivity/Password Issue</t>
         </is>
       </c>
       <c r="D2" s="46" t="inlineStr"/>
       <c r="E2" s="37" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Connectivity/Password Issue</t>
         </is>
       </c>
       <c r="F2" s="46" t="inlineStr"/>
